--- a/demo/Results_rt/transform/rt/Posthoc_1.xlsx
+++ b/demo/Results_rt/transform/rt/Posthoc_1.xlsx
@@ -13,30 +13,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="26">
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
+    <t>1</t>
   </si>
   <si>
     <t>A_1</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
     <t>A_2</t>
   </si>
   <si>
-    <t>a2</t>
+    <t>2</t>
   </si>
   <si>
     <t>emmCI_1</t>
@@ -151,7 +142,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="true"/>
+    <col min="1" max="1" width="2.28515625" customWidth="true"/>
     <col min="2" max="2" width="4.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
@@ -164,7 +155,7 @@
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
     <col min="12" max="12" width="4.42578125" customWidth="true"/>
     <col min="13" max="13" width="13.7109375" customWidth="true"/>
-    <col min="14" max="14" width="15.7109375" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="10.140625" customWidth="true"/>
     <col min="16" max="16" width="11.5703125" customWidth="true"/>
   </cols>
@@ -174,49 +165,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -224,31 +215,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0">
-        <v>0.068752442899168306</v>
+        <v>0.068752442903090724</v>
       </c>
       <c r="G2" s="0">
-        <v>0.13750488579833664</v>
+        <v>0.13750488580618148</v>
       </c>
       <c r="H2" s="0">
-        <v>0.19634036163297974</v>
+        <v>0.19634036163374091</v>
       </c>
       <c r="I2" s="0">
-        <v>3.574376805694981</v>
+        <v>3.5743768057086789</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3262563560991123</v>
+        <v>3.3262563560046718</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
@@ -257,46 +248,46 @@
         <v>523</v>
       </c>
       <c r="M2" s="0">
-        <v>0.15949864942094658</v>
+        <v>0.1594986494186823</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0063197613950094315</v>
+        <v>0.0063197613948311315</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0">
-        <v>0.50769941740938895</v>
+        <v>0.50769941743781788</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50769941740938895</v>
+        <v>0.50769941743781788</v>
       </c>
       <c r="H3" s="0">
-        <v>0.074507177470460206</v>
+        <v>0.074507177466808905</v>
       </c>
       <c r="I3" s="0">
-        <v>1.3017188360478933</v>
+        <v>1.3017188359836127</v>
       </c>
       <c r="J3" s="0">
-        <v>0.43940994791874272</v>
+        <v>0.43940994785985166</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
@@ -305,46 +296,46 @@
         <v>523</v>
       </c>
       <c r="M3" s="0">
-        <v>0.057971440711725122</v>
+        <v>0.057971440707840369</v>
       </c>
       <c r="N3" s="0">
-        <v>0.00083946668815491595</v>
+        <v>0.0008394666880425025</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="P3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0">
-        <v>0.040353167850667983</v>
+        <v>0.040353167862569483</v>
       </c>
       <c r="G4" s="0">
-        <v>0.1210595035520039</v>
+        <v>0.12105950358770845</v>
       </c>
       <c r="H4" s="0">
-        <v>0.15306375951057571</v>
+        <v>0.15306375951080842</v>
       </c>
       <c r="I4" s="0">
-        <v>2.5272891969430029</v>
+        <v>2.5272891969466453</v>
       </c>
       <c r="J4" s="0">
-        <v>4.2239565334645999</v>
+        <v>4.2239565329599165</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
@@ -353,13 +344,13 @@
         <v>523</v>
       </c>
       <c r="M4" s="0">
-        <v>0.17973757231646062</v>
+        <v>0.17973757230572299</v>
       </c>
       <c r="N4" s="0">
-        <v>0.0080116930976304977</v>
+        <v>0.0080116930966809188</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P4" s="0"/>
     </row>

--- a/demo/Results_rt/transform/rt/Posthoc_1.xlsx
+++ b/demo/Results_rt/transform/rt/Posthoc_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35" uniqueCount="28">
   <si>
     <t>B</t>
   </si>
@@ -21,37 +21,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>A_1</t>
   </si>
   <si>
     <t>A_2</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>emmCI_1</t>
   </si>
   <si>
-    <t>1.70 (1.67, 1.74)</t>
-  </si>
-  <si>
-    <t>1.74 (1.72, 1.77)</t>
-  </si>
-  <si>
-    <t>1.80 (1.77, 1.83)</t>
+    <t>242.49 (201.43, 293.76)</t>
+  </si>
+  <si>
+    <t>281.47 (240.23, 331.26)</t>
+  </si>
+  <si>
+    <t>370.28 (308.01, 447.71)</t>
   </si>
   <si>
     <t>emmCI_2</t>
   </si>
   <si>
-    <t>1.74 (1.71, 1.77)</t>
-  </si>
-  <si>
-    <t>1.76 (1.73, 1.79)</t>
-  </si>
-  <si>
-    <t>1.83 (1.80, 1.85)</t>
+    <t>294.89 (246.87, 354.23)</t>
+  </si>
+  <si>
+    <t>311.36 (262.56, 371.12)</t>
+  </si>
+  <si>
+    <t>451.44 (380.15, 538.72)</t>
   </si>
   <si>
     <t>p</t>
@@ -84,13 +87,16 @@
     <t>effectSize</t>
   </si>
   <si>
+    <t>very small</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
-    <t>very small</t>
-  </si>
-  <si>
     <t>significance</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -145,11 +151,11 @@
     <col min="1" max="1" width="2.28515625" customWidth="true"/>
     <col min="2" max="2" width="4.42578125" customWidth="true"/>
     <col min="3" max="3" width="4.42578125" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="20.7109375" customWidth="true"/>
+    <col min="5" max="5" width="20.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="4.42578125" customWidth="true"/>
@@ -165,49 +171,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -218,88 +224,88 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0">
-        <v>0.068752442903090724</v>
+        <v>0.10300696953510069</v>
       </c>
       <c r="G2" s="0">
-        <v>0.13750488580618148</v>
+        <v>0.20601393907020138</v>
       </c>
       <c r="H2" s="0">
-        <v>0.19634036163374091</v>
+        <v>52.396985389858088</v>
       </c>
       <c r="I2" s="0">
-        <v>3.5743768057086789</v>
+        <v>21.607910458832563</v>
       </c>
       <c r="J2" s="0">
-        <v>3.3262563560046718</v>
+        <v>2.6674883590925078</v>
       </c>
       <c r="K2" s="0">
         <v>1</v>
       </c>
       <c r="L2" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M2" s="0">
-        <v>0.1594986494186823</v>
+        <v>0.14135482379611519</v>
       </c>
       <c r="N2" s="0">
-        <v>0.0063197613948311315</v>
+        <v>0.0049704675929756531</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0">
-        <v>0.50769941743781788</v>
+        <v>0.40809498568816061</v>
       </c>
       <c r="G3" s="0">
-        <v>0.50769941743781788</v>
+        <v>0.40809498568816061</v>
       </c>
       <c r="H3" s="0">
-        <v>0.074507177466808905</v>
+        <v>29.892962547327272</v>
       </c>
       <c r="I3" s="0">
-        <v>1.3017188359836127</v>
+        <v>10.620445338454356</v>
       </c>
       <c r="J3" s="0">
-        <v>0.43940994785985166</v>
+        <v>0.6854242252662146</v>
       </c>
       <c r="K3" s="0">
         <v>1</v>
       </c>
       <c r="L3" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M3" s="0">
-        <v>0.057971440707840369</v>
+        <v>0.071653777706915209</v>
       </c>
       <c r="N3" s="0">
-        <v>0.0008394666880425025</v>
+        <v>0.0012819205353491014</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>24</v>
@@ -308,51 +314,53 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0">
-        <v>0.040353167862569483</v>
+        <v>0.01463207336137261</v>
       </c>
       <c r="G4" s="0">
-        <v>0.12105950358770845</v>
+        <v>0.043896220084117865</v>
       </c>
       <c r="H4" s="0">
-        <v>0.15306375951080842</v>
+        <v>81.162516556102105</v>
       </c>
       <c r="I4" s="0">
-        <v>2.5272891969466453</v>
+        <v>21.919505087962246</v>
       </c>
       <c r="J4" s="0">
-        <v>4.2239565329599165</v>
+        <v>5.9992645534675786</v>
       </c>
       <c r="K4" s="0">
         <v>1</v>
       </c>
       <c r="L4" s="0">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M4" s="0">
-        <v>0.17973757230572299</v>
+        <v>0.21198658274034568</v>
       </c>
       <c r="N4" s="0">
-        <v>0.0080116930966809188</v>
+        <v>0.011109764303898541</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
